--- a/data/Subset2_WithDialogActs/TalkBack.Year1.Gibson.Fall.120619.xlsx_with_dialog_acts.xlsx
+++ b/data/Subset2_WithDialogActs/TalkBack.Year1.Gibson.Fall.120619.xlsx_with_dialog_acts.xlsx
@@ -661,12 +661,12 @@
       <c r="H6" t="inlineStr"/>
       <c r="I6" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J6" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -699,12 +699,12 @@
       <c r="H7" t="inlineStr"/>
       <c r="I7" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J7" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1003,12 +1003,12 @@
       <c r="H15" t="inlineStr"/>
       <c r="I15" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J15" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1115,12 +1115,12 @@
       <c r="H18" t="inlineStr"/>
       <c r="I18" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J18" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -1153,12 +1153,12 @@
       <c r="H19" t="inlineStr"/>
       <c r="I19" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J19" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1419,12 +1419,12 @@
       <c r="H26" t="inlineStr"/>
       <c r="I26" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J26" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -1495,12 +1495,12 @@
       <c r="H28" t="inlineStr"/>
       <c r="I28" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J28" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -1989,12 +1989,12 @@
       <c r="H41" t="inlineStr"/>
       <c r="I41" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J41" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -2293,12 +2293,12 @@
       <c r="H49" t="inlineStr"/>
       <c r="I49" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J49" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -2373,12 +2373,12 @@
       <c r="H51" t="inlineStr"/>
       <c r="I51" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J51" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -2639,12 +2639,12 @@
       <c r="H58" t="inlineStr"/>
       <c r="I58" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J58" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -2867,12 +2867,12 @@
       <c r="H64" t="inlineStr"/>
       <c r="I64" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J64" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3593,12 +3593,12 @@
       <c r="H83" t="inlineStr"/>
       <c r="I83" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J83" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3783,12 +3783,12 @@
       <c r="H88" t="inlineStr"/>
       <c r="I88" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J88" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -3977,12 +3977,12 @@
       <c r="H93" t="inlineStr"/>
       <c r="I93" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J93" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4167,12 +4167,12 @@
       <c r="H98" t="inlineStr"/>
       <c r="I98" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J98" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -4813,12 +4813,12 @@
       <c r="H115" t="inlineStr"/>
       <c r="I115" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J115" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -5041,12 +5041,12 @@
       <c r="H121" t="inlineStr"/>
       <c r="I121" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J121" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5117,12 +5117,12 @@
       <c r="H123" t="inlineStr"/>
       <c r="I123" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J123" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -5847,12 +5847,12 @@
       </c>
       <c r="I142" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J142" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -6379,12 +6379,12 @@
       <c r="H156" t="inlineStr"/>
       <c r="I156" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J156" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6417,12 +6417,12 @@
       <c r="H157" t="inlineStr"/>
       <c r="I157" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J157" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6493,12 +6493,12 @@
       <c r="H159" t="inlineStr"/>
       <c r="I159" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J159" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -6531,12 +6531,12 @@
       <c r="H160" t="inlineStr"/>
       <c r="I160" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J160" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -6835,12 +6835,12 @@
       <c r="H168" t="inlineStr"/>
       <c r="I168" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J168" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -7101,12 +7101,12 @@
       <c r="H175" t="inlineStr"/>
       <c r="I175" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J175" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -7329,12 +7329,12 @@
       <c r="H181" t="inlineStr"/>
       <c r="I181" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J181" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -7367,12 +7367,12 @@
       <c r="H182" t="inlineStr"/>
       <c r="I182" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J182" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8049,12 +8049,12 @@
       <c r="H200" t="inlineStr"/>
       <c r="I200" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J200" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -8847,12 +8847,12 @@
       <c r="H221" t="inlineStr"/>
       <c r="I221" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J221" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -8885,12 +8885,12 @@
       <c r="H222" t="inlineStr"/>
       <c r="I222" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J222" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -9383,12 +9383,12 @@
       </c>
       <c r="I235" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J235" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -9535,12 +9535,12 @@
       <c r="H239" t="inlineStr"/>
       <c r="I239" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J239" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -9573,12 +9573,12 @@
       </c>
       <c r="I240" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J240" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -10831,12 +10831,12 @@
       <c r="H273" t="inlineStr"/>
       <c r="I273" t="inlineStr">
         <is>
-          <t>ba</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J273" t="inlineStr">
         <is>
-          <t>Appreciation</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -11249,12 +11249,12 @@
       <c r="H284" t="inlineStr"/>
       <c r="I284" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J284" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -11933,12 +11933,12 @@
       <c r="H302" t="inlineStr"/>
       <c r="I302" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J302" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12009,12 +12009,12 @@
       <c r="H304" t="inlineStr"/>
       <c r="I304" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J304" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12085,12 +12085,12 @@
       <c r="H306" t="inlineStr"/>
       <c r="I306" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J306" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -12237,12 +12237,12 @@
       <c r="H310" t="inlineStr"/>
       <c r="I310" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J310" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12351,12 +12351,12 @@
       <c r="H313" t="inlineStr"/>
       <c r="I313" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J313" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -12959,12 +12959,12 @@
       <c r="H329" t="inlineStr"/>
       <c r="I329" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J329" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13149,12 +13149,12 @@
       <c r="H334" t="inlineStr"/>
       <c r="I334" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J334" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -13453,12 +13453,12 @@
       <c r="H342" t="inlineStr"/>
       <c r="I342" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J342" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -13795,12 +13795,12 @@
       <c r="H351" t="inlineStr"/>
       <c r="I351" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J351" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -14517,12 +14517,12 @@
       <c r="H370" t="inlineStr"/>
       <c r="I370" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>%</t>
         </is>
       </c>
       <c r="J370" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Uninterpretable</t>
         </is>
       </c>
     </row>
@@ -14593,12 +14593,12 @@
       <c r="H372" t="inlineStr"/>
       <c r="I372" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J372" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16311,12 +16311,12 @@
       <c r="H417" t="inlineStr"/>
       <c r="I417" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J417" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -16771,12 +16771,12 @@
       <c r="H429" t="inlineStr"/>
       <c r="I429" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J429" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17189,12 +17189,12 @@
       </c>
       <c r="I440" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J440" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -17227,12 +17227,12 @@
       <c r="H441" t="inlineStr"/>
       <c r="I441" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J441" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -17303,12 +17303,12 @@
       <c r="H443" t="inlineStr"/>
       <c r="I443" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J443" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18101,12 +18101,12 @@
       <c r="H464" t="inlineStr"/>
       <c r="I464" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J464" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -18215,12 +18215,12 @@
       <c r="H467" t="inlineStr"/>
       <c r="I467" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J467" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -18291,12 +18291,12 @@
       <c r="H469" t="inlineStr"/>
       <c r="I469" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J469" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -18671,12 +18671,12 @@
       <c r="H479" t="inlineStr"/>
       <c r="I479" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J479" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19165,12 +19165,12 @@
       <c r="H492" t="inlineStr"/>
       <c r="I492" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J492" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -19659,12 +19659,12 @@
       <c r="H505" t="inlineStr"/>
       <c r="I505" t="inlineStr">
         <is>
-          <t>b</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J505" t="inlineStr">
         <is>
-          <t>Acknowledge (Backchannel)</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -20039,12 +20039,12 @@
       </c>
       <c r="I515" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J515" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -20533,12 +20533,12 @@
       <c r="H528" t="inlineStr"/>
       <c r="I528" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J528" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -20875,12 +20875,12 @@
       <c r="H537" t="inlineStr"/>
       <c r="I537" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J537" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -21255,12 +21255,12 @@
       <c r="H547" t="inlineStr"/>
       <c r="I547" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J547" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -21863,12 +21863,12 @@
       <c r="H563" t="inlineStr"/>
       <c r="I563" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J563" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -22015,12 +22015,12 @@
       <c r="H567" t="inlineStr"/>
       <c r="I567" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J567" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22091,12 +22091,12 @@
       <c r="H569" t="inlineStr"/>
       <c r="I569" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J569" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22167,12 +22167,12 @@
       <c r="H571" t="inlineStr"/>
       <c r="I571" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J571" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -22661,12 +22661,12 @@
       <c r="H584" t="inlineStr"/>
       <c r="I584" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J584" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -22813,12 +22813,12 @@
       <c r="H588" t="inlineStr"/>
       <c r="I588" t="inlineStr">
         <is>
-          <t>qy</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J588" t="inlineStr">
         <is>
-          <t>Yes-No-Question</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -22851,12 +22851,12 @@
       <c r="H589" t="inlineStr"/>
       <c r="I589" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J589" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23117,12 +23117,12 @@
       <c r="H596" t="inlineStr"/>
       <c r="I596" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J596" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23193,12 +23193,12 @@
       <c r="H598" t="inlineStr"/>
       <c r="I598" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J598" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -23497,12 +23497,12 @@
       <c r="H606" t="inlineStr"/>
       <c r="I606" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J606" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -23611,12 +23611,12 @@
       <c r="H609" t="inlineStr"/>
       <c r="I609" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J609" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -23763,12 +23763,12 @@
       <c r="H613" t="inlineStr"/>
       <c r="I613" t="inlineStr">
         <is>
-          <t>%</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J613" t="inlineStr">
         <is>
-          <t>Uninterpretable</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -24257,12 +24257,12 @@
       <c r="H626" t="inlineStr"/>
       <c r="I626" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J626" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -24939,12 +24939,12 @@
       <c r="H644" t="inlineStr"/>
       <c r="I644" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J644" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -25243,12 +25243,12 @@
       <c r="H652" t="inlineStr"/>
       <c r="I652" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J652" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25471,12 +25471,12 @@
       <c r="H658" t="inlineStr"/>
       <c r="I658" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J658" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25623,12 +25623,12 @@
       </c>
       <c r="I662" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J662" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -25737,12 +25737,12 @@
       <c r="H665" t="inlineStr"/>
       <c r="I665" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J665" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -26801,12 +26801,12 @@
       <c r="H693" t="inlineStr"/>
       <c r="I693" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>ba</t>
         </is>
       </c>
       <c r="J693" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Appreciation</t>
         </is>
       </c>
     </row>
@@ -27295,12 +27295,12 @@
       <c r="H706" t="inlineStr"/>
       <c r="I706" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J706" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -27409,12 +27409,12 @@
       <c r="H709" t="inlineStr"/>
       <c r="I709" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>aa</t>
         </is>
       </c>
       <c r="J709" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Agree/Accept</t>
         </is>
       </c>
     </row>
@@ -27561,12 +27561,12 @@
       <c r="H713" t="inlineStr"/>
       <c r="I713" t="inlineStr">
         <is>
-          <t>sd</t>
+          <t>sv</t>
         </is>
       </c>
       <c r="J713" t="inlineStr">
         <is>
-          <t>Statement-non-opinion</t>
+          <t>Statement-opinion</t>
         </is>
       </c>
     </row>
@@ -27637,12 +27637,12 @@
       <c r="H715" t="inlineStr"/>
       <c r="I715" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>b</t>
         </is>
       </c>
       <c r="J715" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Acknowledge (Backchannel)</t>
         </is>
       </c>
     </row>
@@ -27713,12 +27713,12 @@
       <c r="H717" t="inlineStr"/>
       <c r="I717" t="inlineStr">
         <is>
-          <t>sv</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J717" t="inlineStr">
         <is>
-          <t>Statement-opinion</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
@@ -27751,12 +27751,12 @@
       <c r="H718" t="inlineStr"/>
       <c r="I718" t="inlineStr">
         <is>
-          <t>aa</t>
+          <t>sd</t>
         </is>
       </c>
       <c r="J718" t="inlineStr">
         <is>
-          <t>Agree/Accept</t>
+          <t>Statement-non-opinion</t>
         </is>
       </c>
     </row>
